--- a/corpus/corpus1.xlsx
+++ b/corpus/corpus1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenia\OneDrive\Desktop\Studium\Stuttgart\HiWi Stelle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonhauser.1/Documents/current-research-topics/dog-whistles/git-DogWhistle/corpus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5460F9-C653-4185-8C4F-FF40F4BC8972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF01A71-4C51-954A-97C9-DD7F015AD0E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCB5A3C5-D886-4ABA-8714-5EABE44458FE}"/>
+    <workbookView xWindow="600" yWindow="500" windowWidth="21420" windowHeight="16840" xr2:uid="{DCB5A3C5-D886-4ABA-8714-5EABE44458FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -185,9 +174,6 @@
   </si>
   <si>
     <t>Frühsexualisierung</t>
-  </si>
-  <si>
-    <t>Wir bekennen unszum Recht jedes Kindes, vor Frühsexualisierung geschützt zu werden. Kinder sind keine jungen Erwachsenen. Die Kindheit ist eine besondere Zeit, eine Zeit der Freiheit, eine Zeit der Aufnahme- und Prägefähigkeit und eine Zeit der Unschuld. Dies erfordert besondere Vorsicht im Umgang mit unseren Kindern.</t>
   </si>
   <si>
     <t>Fluchtursachen bekämpfen</t>
@@ -373,12 +359,15 @@
   <si>
     <t>https://twitter.com/MatthiasMeisner/status/960886948847026177/photo/1</t>
   </si>
+  <si>
+    <t>Wir bekennen uns zum Recht jedes Kindes, vor Frühsexualisierung geschützt zu werden. Kinder sind keine jungen Erwachsenen. Die Kindheit ist eine besondere Zeit, eine Zeit der Freiheit, eine Zeit der Aufnahme- und Prägefähigkeit und eine Zeit der Unschuld. Dies erfordert besondere Vorsicht im Umgang mit unseren Kindern.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,8 +594,8 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,7 +611,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -920,22 +909,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986F0047-689A-4353-96C7-0832F652F8E9}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -943,19 +932,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -964,10 +953,10 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="172.8" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="184">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -978,13 +967,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>66</v>
-      </c>
       <c r="F2" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="23">
         <v>44714</v>
@@ -993,7 +982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="172.8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="184">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1007,17 +996,17 @@
         <v>10</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="23">
         <v>44714</v>
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="183">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1031,10 +1020,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="24">
         <v>44714</v>
@@ -1042,9 +1031,9 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="168">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>14</v>
@@ -1056,18 +1045,18 @@
         <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="176">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1079,18 +1068,18 @@
         <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="127">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
@@ -1101,13 +1090,13 @@
         <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="28">
         <v>44333</v>
@@ -1115,34 +1104,34 @@
       <c r="H7" s="5"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="128">
       <c r="A8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>83</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>84</v>
       </c>
       <c r="G8" s="28">
         <v>44873</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="112">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -1153,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27">
@@ -1165,7 +1154,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="332">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1186,7 +1175,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="71">
       <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
         <v>28</v>
@@ -1205,7 +1194,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="127">
       <c r="A12" s="10"/>
       <c r="B12" s="8" t="s">
         <v>29</v>
@@ -1226,7 +1215,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="127">
       <c r="A13" s="10"/>
       <c r="B13" s="8" t="s">
         <v>34</v>
@@ -1247,9 +1236,9 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="93" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="99">
       <c r="A14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>37</v>
@@ -1268,7 +1257,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="176">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
@@ -1276,16 +1265,16 @@
         <v>41</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="31">
         <v>44412</v>
@@ -1295,24 +1284,24 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:10" ht="162" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="187">
       <c r="A16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>89</v>
       </c>
       <c r="G16" s="34">
         <v>43175</v>
@@ -1320,22 +1309,22 @@
       <c r="H16" s="11"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="240">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>93</v>
       </c>
       <c r="G17" s="33">
         <v>42688</v>
@@ -1343,85 +1332,85 @@
       <c r="H17" s="10"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="68">
       <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="C18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="1"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="192">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="176">
+      <c r="A20" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="18" t="s">
+      <c r="B20" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="240">
+      <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G21" s="33">
         <v>43136</v>
